--- a/document/Database/Student data.xlsx
+++ b/document/Database/Student data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duyng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT University\Sem 4 (Summer 2022)\Sub docs\PRJ301\NetBeansProjects\PRJ301-Assignment\document\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403F4546-FC80-4D20-B28E-4B3709B35C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEFA52B-2019-4024-9A19-52B13711D3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC81D0DC-0E3E-46A2-9041-3EEC9BE5CE22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BC81D0DC-0E3E-46A2-9041-3EEC9BE5CE22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="488">
   <si>
     <t>StudentID</t>
   </si>
@@ -1076,6 +1077,429 @@
   </si>
   <si>
     <t>ManhDNHE163519@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE141428</t>
+  </si>
+  <si>
+    <t>MinhNPBHE141428</t>
+  </si>
+  <si>
+    <t>Phạm Bình</t>
+  </si>
+  <si>
+    <t>Nguyễn Phạm Bình Minh</t>
+  </si>
+  <si>
+    <t>MinhNPBHE141428@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE141476</t>
+  </si>
+  <si>
+    <t>ThaiNTHE141476</t>
+  </si>
+  <si>
+    <t>Thái</t>
+  </si>
+  <si>
+    <t>Nguyễn Thế Thái</t>
+  </si>
+  <si>
+    <t>ThaiNTHE141476@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE150076</t>
+  </si>
+  <si>
+    <t>TaiDMHE150076</t>
+  </si>
+  <si>
+    <t>Đoàn</t>
+  </si>
+  <si>
+    <t>Tài</t>
+  </si>
+  <si>
+    <t>Đoàn Mạnh Tài</t>
+  </si>
+  <si>
+    <t>TaiDMHE150076@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE150811</t>
+  </si>
+  <si>
+    <t>ThangTNHE150811</t>
+  </si>
+  <si>
+    <t>Thắng</t>
+  </si>
+  <si>
+    <t>Trần Ngọc Thắng</t>
+  </si>
+  <si>
+    <t>ThangTNHE150811@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE150963</t>
+  </si>
+  <si>
+    <t>TamNDHE150963</t>
+  </si>
+  <si>
+    <t>Tâm</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Tâm</t>
+  </si>
+  <si>
+    <t>TamNDHE150963@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE151052</t>
+  </si>
+  <si>
+    <t>DuongNBHE151052</t>
+  </si>
+  <si>
+    <t>Nguyễn Bình Dương</t>
+  </si>
+  <si>
+    <t>DuongNBHE151052@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE151058</t>
+  </si>
+  <si>
+    <t>CuongLVHE151058</t>
+  </si>
+  <si>
+    <t>Lê Văn Cường</t>
+  </si>
+  <si>
+    <t>CuongLVHE151058@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE151358</t>
+  </si>
+  <si>
+    <t>TuanDMHE151358</t>
+  </si>
+  <si>
+    <t>Đào</t>
+  </si>
+  <si>
+    <t>Tuấn</t>
+  </si>
+  <si>
+    <t>Đào Minh Tuấn</t>
+  </si>
+  <si>
+    <t>TuanDMHE151358@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE153050</t>
+  </si>
+  <si>
+    <t>MinhVNHE153050</t>
+  </si>
+  <si>
+    <t>Vũ Nhật Minh</t>
+  </si>
+  <si>
+    <t>MinhVNHE153050@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE153093</t>
+  </si>
+  <si>
+    <t>LongCHHE153093</t>
+  </si>
+  <si>
+    <t>Chu</t>
+  </si>
+  <si>
+    <t>Hồng</t>
+  </si>
+  <si>
+    <t>Chu Hồng Long</t>
+  </si>
+  <si>
+    <t>LongCHHE153093@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE153381</t>
+  </si>
+  <si>
+    <t>AnhDHNHE153381</t>
+  </si>
+  <si>
+    <t>Đàm</t>
+  </si>
+  <si>
+    <t>Huy Nam</t>
+  </si>
+  <si>
+    <t>Đàm Huy Nam Anh</t>
+  </si>
+  <si>
+    <t>AnhDHNHE153381@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE153487</t>
+  </si>
+  <si>
+    <t>HieuTBHE153487</t>
+  </si>
+  <si>
+    <t>Bá</t>
+  </si>
+  <si>
+    <t>Trịnh Bá Hiếu</t>
+  </si>
+  <si>
+    <t>HieuTBHE153487@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE153560</t>
+  </si>
+  <si>
+    <t>DucVLHE153560</t>
+  </si>
+  <si>
+    <t>Lý</t>
+  </si>
+  <si>
+    <t>Vũ Lý Đức</t>
+  </si>
+  <si>
+    <t>DucVLHE153560@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE160167</t>
+  </si>
+  <si>
+    <t>TungHXHE160167</t>
+  </si>
+  <si>
+    <t>Hoàng Xuân Tùng</t>
+  </si>
+  <si>
+    <t>TungHXHE160167@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE160491</t>
+  </si>
+  <si>
+    <t>KienTTHE160491</t>
+  </si>
+  <si>
+    <t>Trung</t>
+  </si>
+  <si>
+    <t>Kiên</t>
+  </si>
+  <si>
+    <t>Trần Trung Kiên</t>
+  </si>
+  <si>
+    <t>KienTTHE160491@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE161541</t>
+  </si>
+  <si>
+    <t>ThanhNDHE161541</t>
+  </si>
+  <si>
+    <t>Đình</t>
+  </si>
+  <si>
+    <t>Thanh</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Thanh</t>
+  </si>
+  <si>
+    <t>ThanhNDHE161541@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE161543</t>
+  </si>
+  <si>
+    <t>KhanhNNHE161543</t>
+  </si>
+  <si>
+    <t>Nguyễn Nam Khánh</t>
+  </si>
+  <si>
+    <t>KhanhNNHE161543@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE161551</t>
+  </si>
+  <si>
+    <t>HieuNMHE161551</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Hiếu</t>
+  </si>
+  <si>
+    <t>HieuNMHE161551@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE161645</t>
+  </si>
+  <si>
+    <t>TuyenNQHE161645</t>
+  </si>
+  <si>
+    <t>Tuyên</t>
+  </si>
+  <si>
+    <t>Nguyễn Quốc Tuyên</t>
+  </si>
+  <si>
+    <t>TuyenNQHE161645@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE161811</t>
+  </si>
+  <si>
+    <t>AnhNTHE161811</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Anh</t>
+  </si>
+  <si>
+    <t>AnhNTHE161811@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE163004</t>
+  </si>
+  <si>
+    <t>HanhNDHE163004</t>
+  </si>
+  <si>
+    <t>Hạnh</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Hạnh</t>
+  </si>
+  <si>
+    <t>HanhNDHE163004@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE163491</t>
+  </si>
+  <si>
+    <t>TruongDXHE163491</t>
+  </si>
+  <si>
+    <t>Trường</t>
+  </si>
+  <si>
+    <t>Đỗ Xuân Trường</t>
+  </si>
+  <si>
+    <t>TruongDXHE163491@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE163567</t>
+  </si>
+  <si>
+    <t>HuyVQHE163567</t>
+  </si>
+  <si>
+    <t>Vũ Quang Huy</t>
+  </si>
+  <si>
+    <t>HuyVQHE163567@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE163630</t>
+  </si>
+  <si>
+    <t>HaDTHE163630</t>
+  </si>
+  <si>
+    <t>Đinh Thanh Hà</t>
+  </si>
+  <si>
+    <t>HaDTHE163630@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE163677</t>
+  </si>
+  <si>
+    <t>HaiCTHE163677</t>
+  </si>
+  <si>
+    <t>Cao Thanh Hải</t>
+  </si>
+  <si>
+    <t>HaiCTHE163677@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE163697</t>
+  </si>
+  <si>
+    <t>ThanhNDTHE163697</t>
+  </si>
+  <si>
+    <t>Đức Trung</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Trung Thành</t>
+  </si>
+  <si>
+    <t>ThanhNDTHE163697@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE163818</t>
+  </si>
+  <si>
+    <t>DongNGHE163818</t>
+  </si>
+  <si>
+    <t>Giang</t>
+  </si>
+  <si>
+    <t>Nguyễn Giang Đông</t>
+  </si>
+  <si>
+    <t>DongNGHE163818@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE163849</t>
+  </si>
+  <si>
+    <t>DungDTHE163849</t>
+  </si>
+  <si>
+    <t>Đào Tiến Dũng</t>
+  </si>
+  <si>
+    <t>DungDTHE163849@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>HE163997</t>
+  </si>
+  <si>
+    <t>AnhKTMHE163997</t>
+  </si>
+  <si>
+    <t>Thị Minh</t>
+  </si>
+  <si>
+    <t>Ánh</t>
+  </si>
+  <si>
+    <t>Khuất Thị Minh Ánh</t>
+  </si>
+  <si>
+    <t>AnhKTMHE163997@fpt.edu.vn</t>
   </si>
 </sst>
 </file>
@@ -1437,8 +1861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4DFA4C-2C2E-4CFE-A27D-1C9D4E035B37}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2946,4 +3370,1144 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2114CBF-63BC-47C0-83B3-9C49ACC85C84}">
+  <dimension ref="A1:J59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/Database/Student data.xlsx
+++ b/document/Database/Student data.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT University\Sem 4 (Summer 2022)\Sub docs\PRJ301\NetBeansProjects\PRJ301-Assignment\document\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duyng\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CEFA52B-2019-4024-9A19-52B13711D3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403F4546-FC80-4D20-B28E-4B3709B35C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BC81D0DC-0E3E-46A2-9041-3EEC9BE5CE22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC81D0DC-0E3E-46A2-9041-3EEC9BE5CE22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="347">
   <si>
     <t>StudentID</t>
   </si>
@@ -1077,429 +1076,6 @@
   </si>
   <si>
     <t>ManhDNHE163519@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE141428</t>
-  </si>
-  <si>
-    <t>MinhNPBHE141428</t>
-  </si>
-  <si>
-    <t>Phạm Bình</t>
-  </si>
-  <si>
-    <t>Nguyễn Phạm Bình Minh</t>
-  </si>
-  <si>
-    <t>MinhNPBHE141428@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE141476</t>
-  </si>
-  <si>
-    <t>ThaiNTHE141476</t>
-  </si>
-  <si>
-    <t>Thái</t>
-  </si>
-  <si>
-    <t>Nguyễn Thế Thái</t>
-  </si>
-  <si>
-    <t>ThaiNTHE141476@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE150076</t>
-  </si>
-  <si>
-    <t>TaiDMHE150076</t>
-  </si>
-  <si>
-    <t>Đoàn</t>
-  </si>
-  <si>
-    <t>Tài</t>
-  </si>
-  <si>
-    <t>Đoàn Mạnh Tài</t>
-  </si>
-  <si>
-    <t>TaiDMHE150076@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE150811</t>
-  </si>
-  <si>
-    <t>ThangTNHE150811</t>
-  </si>
-  <si>
-    <t>Thắng</t>
-  </si>
-  <si>
-    <t>Trần Ngọc Thắng</t>
-  </si>
-  <si>
-    <t>ThangTNHE150811@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE150963</t>
-  </si>
-  <si>
-    <t>TamNDHE150963</t>
-  </si>
-  <si>
-    <t>Tâm</t>
-  </si>
-  <si>
-    <t>Nguyễn Đức Tâm</t>
-  </si>
-  <si>
-    <t>TamNDHE150963@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE151052</t>
-  </si>
-  <si>
-    <t>DuongNBHE151052</t>
-  </si>
-  <si>
-    <t>Nguyễn Bình Dương</t>
-  </si>
-  <si>
-    <t>DuongNBHE151052@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE151058</t>
-  </si>
-  <si>
-    <t>CuongLVHE151058</t>
-  </si>
-  <si>
-    <t>Lê Văn Cường</t>
-  </si>
-  <si>
-    <t>CuongLVHE151058@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE151358</t>
-  </si>
-  <si>
-    <t>TuanDMHE151358</t>
-  </si>
-  <si>
-    <t>Đào</t>
-  </si>
-  <si>
-    <t>Tuấn</t>
-  </si>
-  <si>
-    <t>Đào Minh Tuấn</t>
-  </si>
-  <si>
-    <t>TuanDMHE151358@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE153050</t>
-  </si>
-  <si>
-    <t>MinhVNHE153050</t>
-  </si>
-  <si>
-    <t>Vũ Nhật Minh</t>
-  </si>
-  <si>
-    <t>MinhVNHE153050@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE153093</t>
-  </si>
-  <si>
-    <t>LongCHHE153093</t>
-  </si>
-  <si>
-    <t>Chu</t>
-  </si>
-  <si>
-    <t>Hồng</t>
-  </si>
-  <si>
-    <t>Chu Hồng Long</t>
-  </si>
-  <si>
-    <t>LongCHHE153093@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE153381</t>
-  </si>
-  <si>
-    <t>AnhDHNHE153381</t>
-  </si>
-  <si>
-    <t>Đàm</t>
-  </si>
-  <si>
-    <t>Huy Nam</t>
-  </si>
-  <si>
-    <t>Đàm Huy Nam Anh</t>
-  </si>
-  <si>
-    <t>AnhDHNHE153381@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE153487</t>
-  </si>
-  <si>
-    <t>HieuTBHE153487</t>
-  </si>
-  <si>
-    <t>Bá</t>
-  </si>
-  <si>
-    <t>Trịnh Bá Hiếu</t>
-  </si>
-  <si>
-    <t>HieuTBHE153487@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE153560</t>
-  </si>
-  <si>
-    <t>DucVLHE153560</t>
-  </si>
-  <si>
-    <t>Lý</t>
-  </si>
-  <si>
-    <t>Vũ Lý Đức</t>
-  </si>
-  <si>
-    <t>DucVLHE153560@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE160167</t>
-  </si>
-  <si>
-    <t>TungHXHE160167</t>
-  </si>
-  <si>
-    <t>Hoàng Xuân Tùng</t>
-  </si>
-  <si>
-    <t>TungHXHE160167@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE160491</t>
-  </si>
-  <si>
-    <t>KienTTHE160491</t>
-  </si>
-  <si>
-    <t>Trung</t>
-  </si>
-  <si>
-    <t>Kiên</t>
-  </si>
-  <si>
-    <t>Trần Trung Kiên</t>
-  </si>
-  <si>
-    <t>KienTTHE160491@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE161541</t>
-  </si>
-  <si>
-    <t>ThanhNDHE161541</t>
-  </si>
-  <si>
-    <t>Đình</t>
-  </si>
-  <si>
-    <t>Thanh</t>
-  </si>
-  <si>
-    <t>Nguyễn Đình Thanh</t>
-  </si>
-  <si>
-    <t>ThanhNDHE161541@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE161543</t>
-  </si>
-  <si>
-    <t>KhanhNNHE161543</t>
-  </si>
-  <si>
-    <t>Nguyễn Nam Khánh</t>
-  </si>
-  <si>
-    <t>KhanhNNHE161543@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE161551</t>
-  </si>
-  <si>
-    <t>HieuNMHE161551</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Hiếu</t>
-  </si>
-  <si>
-    <t>HieuNMHE161551@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE161645</t>
-  </si>
-  <si>
-    <t>TuyenNQHE161645</t>
-  </si>
-  <si>
-    <t>Tuyên</t>
-  </si>
-  <si>
-    <t>Nguyễn Quốc Tuyên</t>
-  </si>
-  <si>
-    <t>TuyenNQHE161645@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE161811</t>
-  </si>
-  <si>
-    <t>AnhNTHE161811</t>
-  </si>
-  <si>
-    <t>Nguyễn Tuấn Anh</t>
-  </si>
-  <si>
-    <t>AnhNTHE161811@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE163004</t>
-  </si>
-  <si>
-    <t>HanhNDHE163004</t>
-  </si>
-  <si>
-    <t>Hạnh</t>
-  </si>
-  <si>
-    <t>Nguyễn Đức Hạnh</t>
-  </si>
-  <si>
-    <t>HanhNDHE163004@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE163491</t>
-  </si>
-  <si>
-    <t>TruongDXHE163491</t>
-  </si>
-  <si>
-    <t>Trường</t>
-  </si>
-  <si>
-    <t>Đỗ Xuân Trường</t>
-  </si>
-  <si>
-    <t>TruongDXHE163491@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE163567</t>
-  </si>
-  <si>
-    <t>HuyVQHE163567</t>
-  </si>
-  <si>
-    <t>Vũ Quang Huy</t>
-  </si>
-  <si>
-    <t>HuyVQHE163567@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE163630</t>
-  </si>
-  <si>
-    <t>HaDTHE163630</t>
-  </si>
-  <si>
-    <t>Đinh Thanh Hà</t>
-  </si>
-  <si>
-    <t>HaDTHE163630@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE163677</t>
-  </si>
-  <si>
-    <t>HaiCTHE163677</t>
-  </si>
-  <si>
-    <t>Cao Thanh Hải</t>
-  </si>
-  <si>
-    <t>HaiCTHE163677@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE163697</t>
-  </si>
-  <si>
-    <t>ThanhNDTHE163697</t>
-  </si>
-  <si>
-    <t>Đức Trung</t>
-  </si>
-  <si>
-    <t>Nguyễn Đức Trung Thành</t>
-  </si>
-  <si>
-    <t>ThanhNDTHE163697@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE163818</t>
-  </si>
-  <si>
-    <t>DongNGHE163818</t>
-  </si>
-  <si>
-    <t>Giang</t>
-  </si>
-  <si>
-    <t>Nguyễn Giang Đông</t>
-  </si>
-  <si>
-    <t>DongNGHE163818@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE163849</t>
-  </si>
-  <si>
-    <t>DungDTHE163849</t>
-  </si>
-  <si>
-    <t>Đào Tiến Dũng</t>
-  </si>
-  <si>
-    <t>DungDTHE163849@fpt.edu.vn</t>
-  </si>
-  <si>
-    <t>HE163997</t>
-  </si>
-  <si>
-    <t>AnhKTMHE163997</t>
-  </si>
-  <si>
-    <t>Thị Minh</t>
-  </si>
-  <si>
-    <t>Ánh</t>
-  </si>
-  <si>
-    <t>Khuất Thị Minh Ánh</t>
-  </si>
-  <si>
-    <t>AnhKTMHE163997@fpt.edu.vn</t>
   </si>
 </sst>
 </file>
@@ -1861,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4DFA4C-2C2E-4CFE-A27D-1C9D4E035B37}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD94"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3370,1144 +2946,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2114CBF-63BC-47C0-83B3-9C49ACC85C84}">
-  <dimension ref="A1:J59"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>